--- a/LOVE BABBAR SHEET/FINAL450.xlsx
+++ b/LOVE BABBAR SHEET/FINAL450.xlsx
@@ -1496,12 +1496,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1541,7 +1547,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1580,6 +1586,22 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1666,11 +1688,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C460" activeCellId="0" sqref="C460"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C122" activeCellId="0" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123"/>
@@ -3469,16 +3491,16 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6" t="n">
+      <c r="A132" s="10" t="n">
         <v>127</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4539,7 +4561,7 @@
       <c r="B208" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="14" t="s">
         <v>215</v>
       </c>
       <c r="D208" s="5" t="s">
@@ -5701,7 +5723,7 @@
       <c r="B291" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C291" s="10" t="s">
+      <c r="C291" s="14" t="s">
         <v>300</v>
       </c>
       <c r="D291" s="5" t="s">
@@ -6163,7 +6185,7 @@
       <c r="B324" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="C324" s="14" t="s">
         <v>334</v>
       </c>
       <c r="D324" s="5" t="s">
